--- a/data/trans_orig/P33B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>53785</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40852</v>
+        <v>40000</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71236</v>
+        <v>71500</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07799181247619218</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05923778396311983</v>
+        <v>0.05800237762713206</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1032957596615372</v>
+        <v>0.103678614933722</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>157</v>
@@ -762,19 +762,19 @@
         <v>91143</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77814</v>
+        <v>78208</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>105508</v>
+        <v>105432</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1244598420745512</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1062586365547766</v>
+        <v>0.1067966657440237</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1440763544624412</v>
+        <v>0.1439719577593582</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>213</v>
@@ -783,19 +783,19 @@
         <v>144928</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>124706</v>
+        <v>125672</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>166705</v>
+        <v>167746</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1019231883966539</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0877016991350696</v>
+        <v>0.08838107127378102</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1172381249105026</v>
+        <v>0.1179703091102329</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>43518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31659</v>
+        <v>31304</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58735</v>
+        <v>60656</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06310315607078046</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04590789782402272</v>
+        <v>0.04539226638802229</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08516934871266416</v>
+        <v>0.08795522511227946</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>137</v>
@@ -833,19 +833,19 @@
         <v>78406</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66528</v>
+        <v>65123</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92902</v>
+        <v>93152</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1070665622188948</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09084706175558552</v>
+        <v>0.08892798626711437</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1268623899333922</v>
+        <v>0.1272040497521275</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>187</v>
@@ -854,19 +854,19 @@
         <v>121923</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>104292</v>
+        <v>103948</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>143484</v>
+        <v>143496</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0857446325518839</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07334511163771093</v>
+        <v>0.0731034355408199</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1009073146948408</v>
+        <v>0.1009163972083602</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>122270</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>102736</v>
+        <v>104059</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>140339</v>
+        <v>142944</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1772980397611043</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1489737563050099</v>
+        <v>0.1508921616437004</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2035001941922411</v>
+        <v>0.2072772746850473</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>329</v>
@@ -904,19 +904,19 @@
         <v>162367</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>144403</v>
+        <v>145971</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>180153</v>
+        <v>180218</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2217194792533519</v>
+        <v>0.221719479253352</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1971887489526003</v>
+        <v>0.1993296555306165</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2460072349033361</v>
+        <v>0.2460964723447135</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>484</v>
@@ -925,19 +925,19 @@
         <v>284636</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>261786</v>
+        <v>260573</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>313877</v>
+        <v>313428</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2001754067724778</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1841058502488045</v>
+        <v>0.183252238722959</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2207398453663338</v>
+        <v>0.2204237310326241</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>470055</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>444454</v>
+        <v>442558</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>495571</v>
+        <v>492893</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.681606991691923</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6444843573050054</v>
+        <v>0.6417339922733994</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7186057026701361</v>
+        <v>0.7147230346787006</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>614</v>
@@ -975,19 +975,19 @@
         <v>400392</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>380487</v>
+        <v>376966</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>422282</v>
+        <v>422213</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5467541164532022</v>
+        <v>0.546754116453202</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5195737276142767</v>
+        <v>0.5147655726751875</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5766467079956186</v>
+        <v>0.576551382196079</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1082</v>
@@ -996,19 +996,19 @@
         <v>870447</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>833570</v>
+        <v>836278</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>900690</v>
+        <v>908767</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6121567722789844</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5862229590737362</v>
+        <v>0.5881271565767756</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6334262923586714</v>
+        <v>0.6391063441248785</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>76126</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>60166</v>
+        <v>60080</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>97266</v>
+        <v>97680</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07264453469183894</v>
+        <v>0.07264453469183892</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05741466986592145</v>
+        <v>0.05733192923583444</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09281718736159858</v>
+        <v>0.09321217487440257</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>193</v>
@@ -1121,19 +1121,19 @@
         <v>131501</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>113325</v>
+        <v>114438</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>151567</v>
+        <v>150540</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1228871813339081</v>
+        <v>0.122887181333908</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1059018919882879</v>
+        <v>0.1069416359095915</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.141638747029367</v>
+        <v>0.1406791034436146</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>273</v>
@@ -1142,19 +1142,19 @@
         <v>207628</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>182312</v>
+        <v>183656</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>234537</v>
+        <v>236122</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09802878977230854</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08607653252554398</v>
+        <v>0.08671103390998361</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1107337250968966</v>
+        <v>0.1114821232738017</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>60541</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45486</v>
+        <v>46183</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77808</v>
+        <v>79139</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05777220084162112</v>
+        <v>0.0577722008416211</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.043405761102521</v>
+        <v>0.0440706837458707</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07424903328316768</v>
+        <v>0.07551912561164988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>167</v>
@@ -1192,19 +1192,19 @@
         <v>106253</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91670</v>
+        <v>91163</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>123714</v>
+        <v>122358</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09929287046602048</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08566475889081314</v>
+        <v>0.08519094690135744</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1156102547451319</v>
+        <v>0.11434325357505</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>231</v>
@@ -1213,19 +1213,19 @@
         <v>166794</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>144553</v>
+        <v>143910</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>189290</v>
+        <v>190156</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0787498232261702</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06824902055190635</v>
+        <v>0.06794510225718375</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08937074242433515</v>
+        <v>0.08977973066300284</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>157670</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>133881</v>
+        <v>133151</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>183499</v>
+        <v>182757</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1504589447064423</v>
+        <v>0.1504589447064422</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1277572949716565</v>
+        <v>0.1270614602901201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1751061885750149</v>
+        <v>0.1743981994196942</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>398</v>
@@ -1263,19 +1263,19 @@
         <v>235734</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>215728</v>
+        <v>214274</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257251</v>
+        <v>258919</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2202916300645933</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2015965771694414</v>
+        <v>0.2002375975761791</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.240399923615933</v>
+        <v>0.2419582772707282</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>575</v>
@@ -1284,19 +1284,19 @@
         <v>393404</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>363457</v>
+        <v>365498</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>424476</v>
+        <v>426834</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1857407384923852</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1716016308379102</v>
+        <v>0.1725654072159483</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2004112403552684</v>
+        <v>0.2015242402067261</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>753591</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>725167</v>
+        <v>720530</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>788992</v>
+        <v>784800</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7191243197600976</v>
+        <v>0.7191243197600975</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6920001575858291</v>
+        <v>0.6875750275335704</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.75290573427211</v>
+        <v>0.7489057852283548</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>757</v>
@@ -1334,19 +1334,19 @@
         <v>596610</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>570021</v>
+        <v>565870</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>624182</v>
+        <v>624392</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5575283181354783</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.532681209880132</v>
+        <v>0.5288023685379225</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5832945056559631</v>
+        <v>0.5834904421764778</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1399</v>
@@ -1355,19 +1355,19 @@
         <v>1350201</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1307027</v>
+        <v>1304419</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1392667</v>
+        <v>1386722</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6374806485091359</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6170963956225589</v>
+        <v>0.6158652708011703</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6575301748485516</v>
+        <v>0.6547232702156877</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>46142</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34690</v>
+        <v>34384</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61898</v>
+        <v>61157</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05745618446959073</v>
+        <v>0.05745618446959074</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04319675634534556</v>
+        <v>0.04281548618917417</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0770760719351657</v>
+        <v>0.0761539152007992</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>89</v>
@@ -1480,19 +1480,19 @@
         <v>72443</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57277</v>
+        <v>58558</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90923</v>
+        <v>89721</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08918742058497145</v>
+        <v>0.08918742058497146</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07051513699450884</v>
+        <v>0.07209288484518384</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1119379777029862</v>
+        <v>0.1104583557135753</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>137</v>
@@ -1501,19 +1501,19 @@
         <v>118585</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>99759</v>
+        <v>99987</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>141163</v>
+        <v>140530</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07341202343238133</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06175760799559326</v>
+        <v>0.06189875319133888</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08738958409116752</v>
+        <v>0.08699758773326559</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>47157</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>34746</v>
+        <v>35511</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>65215</v>
+        <v>64461</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05872095769312206</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04326678267116708</v>
+        <v>0.04421920574685062</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0812073664049376</v>
+        <v>0.08026737838987941</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>115</v>
@@ -1551,19 +1551,19 @@
         <v>90548</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>75468</v>
+        <v>75661</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>109870</v>
+        <v>108725</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1114768474439036</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09291153653414663</v>
+        <v>0.09314924819592259</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.135264330058923</v>
+        <v>0.1338551895475401</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>158</v>
@@ -1572,19 +1572,19 @@
         <v>137705</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>114886</v>
+        <v>114520</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>161098</v>
+        <v>161499</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08524890252771319</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07112218816541635</v>
+        <v>0.07089565186970626</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0997303047562501</v>
+        <v>0.09997873109739858</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>149960</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>125237</v>
+        <v>126263</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>175986</v>
+        <v>174460</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1867327545426385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1559476592361254</v>
+        <v>0.1572246302269034</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2191412095483411</v>
+        <v>0.2172402423786835</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>228</v>
@@ -1622,19 +1622,19 @@
         <v>160558</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>141975</v>
+        <v>139077</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>182000</v>
+        <v>180585</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.197668263606987</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1747902357619397</v>
+        <v>0.1712218688043229</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2240661373060742</v>
+        <v>0.2223249810906796</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>360</v>
@@ -1643,19 +1643,19 @@
         <v>310518</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>277553</v>
+        <v>282396</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>344134</v>
+        <v>342468</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1922316018290291</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1718238328124134</v>
+        <v>0.174822367706976</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2130422632382873</v>
+        <v>0.2120110111859057</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>559814</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>529206</v>
+        <v>526002</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>587384</v>
+        <v>586142</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6970901032946488</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6589757759117373</v>
+        <v>0.6549866909965741</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.731420653122955</v>
+        <v>0.7298742912165664</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>615</v>
@@ -1693,19 +1693,19 @@
         <v>488710</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>458538</v>
+        <v>463516</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>514011</v>
+        <v>516189</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.601667468364138</v>
+        <v>0.6016674683641379</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5645220973148335</v>
+        <v>0.570650812548816</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6328162944164042</v>
+        <v>0.6354977394967709</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1068</v>
@@ -1714,19 +1714,19 @@
         <v>1048524</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1010919</v>
+        <v>1007477</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1089083</v>
+        <v>1083434</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6491074722108764</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6258273634115731</v>
+        <v>0.6236967386186919</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6742164455745457</v>
+        <v>0.6707189336324042</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>79929</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63921</v>
+        <v>63668</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>98394</v>
+        <v>99118</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08081101617932256</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06462610684277323</v>
+        <v>0.06437109101142841</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09947996123065829</v>
+        <v>0.10021186747595</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>218</v>
@@ -1839,19 +1839,19 @@
         <v>151579</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>132955</v>
+        <v>133075</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>172887</v>
+        <v>171449</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1355420686969501</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1188879179803657</v>
+        <v>0.1189952341071765</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1545955604454246</v>
+        <v>0.1533093478863273</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>306</v>
@@ -1860,19 +1860,19 @@
         <v>231508</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>206944</v>
+        <v>206576</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>257945</v>
+        <v>262197</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1098547133672968</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09819869764410132</v>
+        <v>0.09802412869364094</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1223994406901206</v>
+        <v>0.1244172927142628</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>80652</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>64519</v>
+        <v>66118</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>98702</v>
+        <v>98478</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08154183789980243</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06523118474105818</v>
+        <v>0.06684758192020671</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09979134188365314</v>
+        <v>0.09956456102979022</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>172</v>
@@ -1910,19 +1910,19 @@
         <v>118815</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>103393</v>
+        <v>100831</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>137453</v>
+        <v>136291</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1062439225257389</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09245403823025888</v>
+        <v>0.09016289157927714</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1229103627470065</v>
+        <v>0.1218711376928578</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>262</v>
@@ -1931,19 +1931,19 @@
         <v>199466</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>177551</v>
+        <v>176771</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>226713</v>
+        <v>225001</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.09465029887004128</v>
+        <v>0.09465029887004127</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08425094025424487</v>
+        <v>0.08388108159805931</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1075792700380826</v>
+        <v>0.1067667258887213</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>159248</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>135920</v>
+        <v>133531</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>182705</v>
+        <v>181868</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1610060164226976</v>
+        <v>0.1610060164226977</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1374204066365424</v>
+        <v>0.1350042264819708</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1847216729278865</v>
+        <v>0.1838753312997797</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>356</v>
@@ -1981,19 +1981,19 @@
         <v>232427</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>209729</v>
+        <v>209674</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>258029</v>
+        <v>257688</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2078358104157499</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1875393062107421</v>
+        <v>0.1874902715876028</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2307295375079204</v>
+        <v>0.2304242538059566</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>535</v>
@@ -2002,19 +2002,19 @@
         <v>391675</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>358759</v>
+        <v>359298</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>424983</v>
+        <v>427221</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.185856814891654</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1702375407606886</v>
+        <v>0.1704933314137471</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2016618876693237</v>
+        <v>0.2027241003093154</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>669255</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>639194</v>
+        <v>641567</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>698852</v>
+        <v>697721</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6766411294981773</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6462482607191592</v>
+        <v>0.6486475316107876</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7065653262969013</v>
+        <v>0.7054213199835059</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>815</v>
@@ -2052,19 +2052,19 @@
         <v>615498</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>585556</v>
+        <v>584482</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>644806</v>
+        <v>643322</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5503781983615611</v>
+        <v>0.5503781983615612</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.523604044427372</v>
+        <v>0.5226435269922579</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5765845968142602</v>
+        <v>0.5752578311547172</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1463</v>
@@ -2073,19 +2073,19 @@
         <v>1284753</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1242082</v>
+        <v>1240276</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1325811</v>
+        <v>1329825</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6096381728710079</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5893897463306681</v>
+        <v>0.5885329633268928</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6291208298308235</v>
+        <v>0.6310253444328962</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>255982</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>226746</v>
+        <v>223441</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>291358</v>
+        <v>287513</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07252203523775252</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06423906521481433</v>
+        <v>0.06330272547125798</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08254424893618746</v>
+        <v>0.08145505548808901</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>657</v>
@@ -2198,19 +2198,19 @@
         <v>446667</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>415041</v>
+        <v>412448</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>482738</v>
+        <v>483501</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.119654093993352</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1111822278390828</v>
+        <v>0.1104875491640292</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1293171152093155</v>
+        <v>0.1295212900826685</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>929</v>
@@ -2219,19 +2219,19 @@
         <v>702649</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>657608</v>
+        <v>654821</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>758905</v>
+        <v>749614</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.0967476288677193</v>
+        <v>0.09674762886771929</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09054593654171167</v>
+        <v>0.09016220109072302</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1044935097274187</v>
+        <v>0.1032142623582063</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>231868</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>201713</v>
+        <v>201716</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>264782</v>
+        <v>260307</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0656902528728973</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05714705196429459</v>
+        <v>0.05714793122609677</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07501505758954474</v>
+        <v>0.07374723031091178</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>591</v>
@@ -2269,19 +2269,19 @@
         <v>394021</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>361248</v>
+        <v>362933</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>427644</v>
+        <v>426544</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1055513417658093</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09677203230532976</v>
+        <v>0.0972232850010879</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1145583297648569</v>
+        <v>0.1142636251310134</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>838</v>
@@ -2290,19 +2290,19 @@
         <v>625889</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>581315</v>
+        <v>580511</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>669044</v>
+        <v>669231</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08617861189355952</v>
+        <v>0.08617861189355951</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08004124426619974</v>
+        <v>0.07993051823163387</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09212065151286576</v>
+        <v>0.09214631755523407</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>589148</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>537780</v>
+        <v>544892</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>631361</v>
+        <v>633764</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.166911110831395</v>
+        <v>0.1669111108313949</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1523579062841781</v>
+        <v>0.1543729853379417</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1788703743090588</v>
+        <v>0.1795510597337991</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1311</v>
@@ -2340,19 +2340,19 @@
         <v>791085</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>747898</v>
+        <v>751817</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>828354</v>
+        <v>833953</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.211917632827575</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2003487985805341</v>
+        <v>0.201398544166591</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2219015150072006</v>
+        <v>0.223401222700803</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1954</v>
@@ -2361,19 +2361,19 @@
         <v>1380233</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1322395</v>
+        <v>1322264</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1446385</v>
+        <v>1439179</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1900441914004267</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1820805063835576</v>
+        <v>0.1820624822846395</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.199152592522567</v>
+        <v>0.1981603715226847</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2452716</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2392502</v>
+        <v>2394317</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2515922</v>
+        <v>2510843</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6948766010579553</v>
+        <v>0.6948766010579551</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6778174125107543</v>
+        <v>0.6783317648890601</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.712783542862043</v>
+        <v>0.711344507036845</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2801</v>
@@ -2411,19 +2411,19 @@
         <v>2101209</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2043237</v>
+        <v>2045365</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2153305</v>
+        <v>2155787</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.5628769314132636</v>
+        <v>0.5628769314132637</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5473470817192119</v>
+        <v>0.5479171011873112</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5768324561578185</v>
+        <v>0.5774973371230016</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5012</v>
@@ -2432,19 +2432,19 @@
         <v>4553925</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4470127</v>
+        <v>4481157</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4626811</v>
+        <v>4630278</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6270295678382946</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6154913631214378</v>
+        <v>0.617010126521655</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6370652041305462</v>
+        <v>0.6375425540811303</v>
       </c>
     </row>
     <row r="28">
